--- a/FRZ冻干人/冻四电调/冻四电调-数据结构任务流程.xlsx
+++ b/FRZ冻干人/冻四电调/冻四电调-数据结构任务流程.xlsx
@@ -550,10 +550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>timer0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tk,100毫秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -582,6 +578,10 @@
   </si>
   <si>
     <t>ta72beepshort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timer0 tta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1207,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1517,7 +1517,7 @@
         <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" t="s">
         <v>88</v>
@@ -1968,7 +1968,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2204,10 +2204,10 @@
         <v>137</v>
       </c>
       <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
         <v>138</v>
-      </c>
-      <c r="C8" t="s">
-        <v>139</v>
       </c>
       <c r="E8" s="9" t="str">
         <f t="shared" ref="E8" si="10">"D:\_mytools\BS_TEMPL.exe _" &amp; A8 &amp; ".xpp aa"</f>
@@ -2263,13 +2263,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E10" s="9" t="str">
         <f t="shared" ref="E10" si="20">"D:\_mytools\BS_TEMPL.exe _" &amp; A10 &amp; ".xpp aa"</f>
@@ -2294,13 +2294,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="9" t="str">
         <f t="shared" ref="E11" si="25">"D:\_mytools\BS_TEMPL.exe _" &amp; A11 &amp; ".xpp aa"</f>
@@ -2335,7 +2335,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2369,13 +2369,13 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
